--- a/raw/H28_D_working.xlsx
+++ b/raw/H28_D_working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\コアカリ全体\core-curriculum\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FD23D7-14BD-461B-92F9-8C33CAC91C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83007D70-6B10-4EB4-970D-7485E8A22226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="27804" windowHeight="13956" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="27804" windowHeight="13956" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D担当・分析V7最終" sheetId="31" r:id="rId1"/>
@@ -6754,19 +6754,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>”高齢者の高血圧の特徴と治療の注意点を説明できる。”は、老年医学で対応検討</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>D-05-04-10-02</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>D-05-04-10-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"低血圧の原因疾患、病態生理、症候、診断、予後、治療を説明できる。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9931,46 +9923,6 @@
   </si>
   <si>
     <t>(4)副腎皮質・髄質疾患：①Cushing 症候群、②アルドステロン過剰症、③原発性アルドステロン症、④副腎不全(急性・慢性&lt;Addison 病&gt;)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(1)間脳・下垂体疾患：①先端巨大症、②Cushing病、③高プロラクチン血症、④下垂体前葉機能低下症、⑤視床下部下垂体炎、⑥中枢性尿崩症、⑦抗利尿ホルモン不適合分泌症候群&lt;SIADH&gt;、⑧下垂体腫瘍</t>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">カンノウ </t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>カスイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シッカn</t>
-    </rPh>
-    <rPh sb="13" eb="18">
-      <t>センタn</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>タカイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ケッショウ</t>
-    </rPh>
-    <rPh sb="41" eb="47">
-      <t>チュウスウセイン</t>
-    </rPh>
-    <rPh sb="53" eb="57">
-      <t>シショウカブ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>カスイタイ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>エンショウ</t>
-    </rPh>
-    <rPh sb="95" eb="100">
-      <t>カスイタイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -11881,6 +11833,15 @@
   </si>
   <si>
     <t>2）症状・症候</t>
+  </si>
+  <si>
+    <t>低血圧の原因疾患、病態生理、症候、診断、予後、治療を説明できる。</t>
+  </si>
+  <si>
+    <t>高齢者の高血圧の特徴と治療の注意点を説明できる。は、老年医学で対応検討</t>
+  </si>
+  <si>
+    <t>(1)間脳・下垂体疾患：①先端巨大症、②Cushing病、③高プロラクチン血症、④下垂体前葉機能低下症、⑤視床下部下垂体炎、⑥中枢性尿崩症、⑦抗利尿ホルモン不適合分泌症候群&lt;SIADH&gt;、⑧下垂体腫瘍</t>
   </si>
 </sst>
 </file>
@@ -13338,10 +13299,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="87" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="D1" s="86" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>62</v>
@@ -13356,7 +13317,7 @@
         <v>85</v>
       </c>
       <c r="I1" s="87" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="J1" s="110" t="s">
         <v>751</v>
@@ -13370,7 +13331,7 @@
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="90" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="B2" s="91" t="s">
         <v>59</v>
@@ -13408,7 +13369,7 @@
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="90" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="B3" s="94" t="s">
         <v>60</v>
@@ -13446,7 +13407,7 @@
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="90" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="B4" s="94" t="s">
         <v>55</v>
@@ -13484,7 +13445,7 @@
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="90" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="B5" s="91" t="s">
         <v>59</v>
@@ -13522,7 +13483,7 @@
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="90" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="B6" s="94" t="s">
         <v>56</v>
@@ -13560,7 +13521,7 @@
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="90" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="B7" s="94" t="s">
         <v>55</v>
@@ -13598,7 +13559,7 @@
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="90" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="B8" s="94" t="s">
         <v>56</v>
@@ -13636,7 +13597,7 @@
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="90" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="B9" s="94" t="s">
         <v>61</v>
@@ -13674,7 +13635,7 @@
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="90" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B10" s="94" t="s">
         <v>56</v>
@@ -13712,7 +13673,7 @@
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="90" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="B11" s="94" t="s">
         <v>57</v>
@@ -13750,7 +13711,7 @@
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="90" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="B12" s="94" t="s">
         <v>60</v>
@@ -13788,7 +13749,7 @@
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="90" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B13" s="94" t="s">
         <v>60</v>
@@ -13826,7 +13787,7 @@
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="90" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B14" s="94" t="s">
         <v>56</v>
@@ -13864,7 +13825,7 @@
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="90" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B15" s="94" t="s">
         <v>59</v>
@@ -13902,7 +13863,7 @@
     </row>
     <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="90" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B16" s="94" t="s">
         <v>57</v>
@@ -14012,7 +13973,7 @@
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="103" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B19" s="94" t="s">
         <v>100</v>
@@ -14033,7 +13994,7 @@
         <v>54</v>
       </c>
       <c r="H19" s="96" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="I19" s="57"/>
       <c r="J19" s="97" t="s">
@@ -14091,7 +14052,7 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="112" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="B21" s="54"/>
       <c r="C21" s="53"/>
@@ -14107,12 +14068,12 @@
     </row>
     <row r="22" spans="1:12" ht="16.2">
       <c r="A22" s="112" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14.55" customHeight="1">
       <c r="A23" s="112" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
     </row>
   </sheetData>
@@ -14197,7 +14158,7 @@
         <v>38</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -14209,7 +14170,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -14221,7 +14182,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="67" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -14233,7 +14194,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -14245,7 +14206,7 @@
         <v>152</v>
       </c>
       <c r="D13" s="67" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
@@ -14257,7 +14218,7 @@
         <v>42</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -14269,7 +14230,7 @@
         <v>43</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -14281,7 +14242,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -14293,7 +14254,7 @@
         <v>45</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -14305,7 +14266,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -14317,7 +14278,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -14329,7 +14290,7 @@
         <v>48</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -14341,7 +14302,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -14353,7 +14314,7 @@
         <v>50</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -14365,7 +14326,7 @@
         <v>51</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -14376,10 +14337,10 @@
         <v>121</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -14388,10 +14349,10 @@
     <row r="25" spans="1:7" ht="14.25" customHeight="1">
       <c r="A25" s="122"/>
       <c r="B25" s="3" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21" t="s">
@@ -14406,7 +14367,7 @@
         <v>52</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -14415,24 +14376,24 @@
     <row r="27" spans="1:7" ht="13.95" customHeight="1">
       <c r="A27" s="125"/>
       <c r="B27" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="22" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1">
       <c r="A28" s="125"/>
       <c r="B28" s="3" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -14444,7 +14405,7 @@
         <v>53</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -14456,7 +14417,7 @@
         <v>54</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -14467,36 +14428,36 @@
         <v>123</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D31" s="67"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1">
       <c r="A32" s="121"/>
       <c r="B32" s="7" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D32" s="67"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1">
       <c r="A33" s="122"/>
       <c r="B33" s="7" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G33" s="22"/>
     </row>
@@ -14505,54 +14466,54 @@
         <v>153</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="G34" s="22"/>
     </row>
     <row r="35" spans="1:7" ht="49.5" customHeight="1">
       <c r="A35" s="121"/>
       <c r="B35" s="3" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="21" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="64.5" customHeight="1">
       <c r="A36" s="121"/>
       <c r="B36" s="3" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="22" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="29.25" customHeight="1">
       <c r="A37" s="121"/>
       <c r="B37" s="3" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
@@ -14561,24 +14522,24 @@
     <row r="38" spans="1:7" ht="51.45" customHeight="1">
       <c r="A38" s="121"/>
       <c r="B38" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="22" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="25.95" customHeight="1">
       <c r="A39" s="121"/>
       <c r="B39" s="3" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -14587,10 +14548,10 @@
     <row r="40" spans="1:7" ht="22.95" customHeight="1">
       <c r="A40" s="121"/>
       <c r="B40" s="3" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
@@ -14599,17 +14560,17 @@
     <row r="41" spans="1:7" ht="14.25" customHeight="1">
       <c r="A41" s="122"/>
       <c r="B41" s="3" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="25" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
@@ -14698,7 +14659,7 @@
         <v>154</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -14710,7 +14671,7 @@
         <v>155</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -14722,7 +14683,7 @@
         <v>156</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -14734,7 +14695,7 @@
         <v>157</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -14746,7 +14707,7 @@
         <v>158</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -14758,7 +14719,7 @@
         <v>159</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -14767,10 +14728,10 @@
     <row r="15" spans="1:7" ht="23.55" customHeight="1" thickBot="1">
       <c r="A15" s="121"/>
       <c r="B15" s="3" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -14782,7 +14743,7 @@
         <v>160</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -14790,10 +14751,10 @@
     </row>
     <row r="17" spans="1:7" ht="14.1" customHeight="1">
       <c r="A17" s="120" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="5"/>
@@ -14803,10 +14764,10 @@
     <row r="18" spans="1:7" ht="28.05" customHeight="1">
       <c r="A18" s="122"/>
       <c r="B18" s="3" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -14817,10 +14778,10 @@
         <v>122</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -14829,10 +14790,10 @@
     <row r="20" spans="1:7" ht="14.1" customHeight="1">
       <c r="A20" s="125"/>
       <c r="B20" s="3" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -14844,7 +14805,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -14856,7 +14817,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -14870,7 +14831,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -14881,10 +14842,10 @@
         <v>124</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
@@ -14895,10 +14856,10 @@
     <row r="25" spans="1:7" ht="24" customHeight="1">
       <c r="A25" s="121"/>
       <c r="B25" s="3" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>756</v>
@@ -14909,10 +14870,10 @@
     <row r="26" spans="1:7" ht="25.05" customHeight="1">
       <c r="A26" s="121"/>
       <c r="B26" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -14921,10 +14882,10 @@
     <row r="27" spans="1:7" ht="28.95" customHeight="1">
       <c r="A27" s="121"/>
       <c r="B27" s="3" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
@@ -14935,10 +14896,10 @@
     <row r="28" spans="1:7" ht="14.1" customHeight="1">
       <c r="A28" s="121"/>
       <c r="B28" s="3" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E28" s="113"/>
       <c r="F28" s="5"/>
@@ -14947,13 +14908,13 @@
     <row r="29" spans="1:7" ht="29.55" customHeight="1">
       <c r="A29" s="121"/>
       <c r="B29" s="3" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="22"/>
@@ -14961,10 +14922,10 @@
     <row r="30" spans="1:7" ht="36" customHeight="1">
       <c r="A30" s="121"/>
       <c r="B30" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -14975,10 +14936,10 @@
     <row r="31" spans="1:7" ht="14.1" customHeight="1">
       <c r="A31" s="121"/>
       <c r="B31" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -14987,10 +14948,10 @@
     <row r="32" spans="1:7" ht="14.1" customHeight="1">
       <c r="A32" s="121"/>
       <c r="B32" s="3" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -14999,10 +14960,10 @@
     <row r="33" spans="1:7" ht="14.1" customHeight="1">
       <c r="A33" s="122"/>
       <c r="B33" s="3" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -15025,7 +14986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:A24"/>
     </sheetView>
   </sheetViews>
@@ -15093,7 +15054,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -15105,7 +15066,7 @@
         <v>163</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -15117,7 +15078,7 @@
         <v>164</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -15129,7 +15090,7 @@
         <v>165</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -15141,7 +15102,7 @@
         <v>166</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
@@ -15153,7 +15114,7 @@
         <v>167</v>
       </c>
       <c r="D14" s="83" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -15165,7 +15126,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="83" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -15177,7 +15138,7 @@
         <v>169</v>
       </c>
       <c r="D16" s="83" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -15189,7 +15150,7 @@
         <v>170</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -15197,13 +15158,13 @@
     </row>
     <row r="18" spans="1:7" ht="14.55" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -15211,13 +15172,13 @@
     </row>
     <row r="19" spans="1:7" ht="27.45" customHeight="1">
       <c r="A19" s="75" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -15228,10 +15189,10 @@
         <v>131</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -15243,7 +15204,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -15252,10 +15213,10 @@
     <row r="22" spans="1:7" ht="30" customHeight="1">
       <c r="A22" s="125"/>
       <c r="B22" s="3" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -15267,7 +15228,7 @@
         <v>34</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
@@ -15279,7 +15240,7 @@
         <v>35</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -15290,75 +15251,75 @@
         <v>132</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7" ht="28.95" customHeight="1">
       <c r="A26" s="125" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:7" ht="41.55" customHeight="1">
       <c r="A27" s="125"/>
       <c r="B27" s="3" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1">
       <c r="A28" s="125"/>
       <c r="B28" s="3" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="22" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1">
       <c r="A29" s="125"/>
       <c r="B29" s="3" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="25" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
   </sheetData>
@@ -15518,7 +15479,7 @@
         <v>121</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>333</v>
@@ -15530,7 +15491,7 @@
     <row r="16" spans="1:7" ht="14.25" customHeight="1">
       <c r="A16" s="122"/>
       <c r="B16" s="6" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>721</v>
@@ -15548,7 +15509,7 @@
         <v>122</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>722</v>
@@ -15560,7 +15521,7 @@
     <row r="18" spans="1:7" ht="27.45" customHeight="1">
       <c r="A18" s="125"/>
       <c r="B18" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D18" s="28" t="s">
         <v>723</v>
@@ -15574,7 +15535,7 @@
     <row r="19" spans="1:7" ht="15.45" customHeight="1">
       <c r="A19" s="125"/>
       <c r="B19" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>719</v>
@@ -15598,7 +15559,7 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="121"/>
       <c r="B21" s="6" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="D21" s="28" t="s">
         <v>724</v>
@@ -15612,7 +15573,7 @@
         <v>124</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D22" s="28" t="s">
         <v>725</v>
@@ -15630,7 +15591,7 @@
     <row r="23" spans="1:7" ht="26.25" customHeight="1">
       <c r="A23" s="125"/>
       <c r="B23" s="4" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>726</v>
@@ -15642,7 +15603,7 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="125"/>
       <c r="B24" s="4" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>727</v>
@@ -15654,7 +15615,7 @@
     <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="125"/>
       <c r="B25" s="4" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="D25" s="28" t="s">
         <v>728</v>
@@ -15670,7 +15631,7 @@
     <row r="26" spans="1:7" ht="39" customHeight="1">
       <c r="A26" s="125"/>
       <c r="B26" s="4" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>730</v>
@@ -15805,10 +15766,10 @@
         <v>121</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -15819,7 +15780,7 @@
         <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>736</v>
@@ -15859,21 +15820,21 @@
         <v>124</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>734</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
       <c r="A17" s="125"/>
       <c r="B17" s="6" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23" t="s">
@@ -15881,7 +15842,7 @@
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
@@ -15900,8 +15861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="12"/>
@@ -16041,7 +16002,7 @@
     <row r="15" spans="1:7" ht="13.95" customHeight="1">
       <c r="A15" s="125"/>
       <c r="B15" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>920</v>
@@ -16049,7 +16010,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="22" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.95" customHeight="1">
@@ -16078,10 +16039,10 @@
     </row>
     <row r="18" spans="1:7" ht="13.95" customHeight="1">
       <c r="A18" s="125" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="21"/>
@@ -16091,7 +16052,7 @@
     <row r="19" spans="1:7" ht="28.95" customHeight="1">
       <c r="A19" s="125"/>
       <c r="B19" s="3" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
@@ -16141,7 +16102,7 @@
         <v>133</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1306</v>
+        <v>1430</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>931</v>
@@ -16157,7 +16118,7 @@
     <row r="24" spans="1:7" ht="25.05" customHeight="1">
       <c r="A24" s="125"/>
       <c r="B24" s="7" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>925</v>
@@ -16171,7 +16132,7 @@
     <row r="25" spans="1:7" ht="27" customHeight="1">
       <c r="A25" s="125"/>
       <c r="B25" s="7" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>696</v>
@@ -16185,7 +16146,7 @@
     <row r="26" spans="1:7" ht="26.55" customHeight="1">
       <c r="A26" s="125"/>
       <c r="B26" s="7" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>926</v>
@@ -16197,7 +16158,7 @@
     <row r="27" spans="1:7" ht="39" customHeight="1">
       <c r="A27" s="125"/>
       <c r="B27" s="7" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D27" s="28" t="s">
         <v>927</v>
@@ -16211,7 +16172,7 @@
     <row r="28" spans="1:7" ht="14.55" customHeight="1">
       <c r="A28" s="125"/>
       <c r="B28" s="7" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>928</v>
@@ -16225,7 +16186,7 @@
     <row r="29" spans="1:7" ht="28.5" customHeight="1">
       <c r="A29" s="125"/>
       <c r="B29" s="7" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>929</v>
@@ -16241,7 +16202,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="125"/>
       <c r="B30" s="7" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="D30" s="28" t="s">
         <v>932</v>
@@ -16253,7 +16214,7 @@
     <row r="31" spans="1:7" ht="14.55" customHeight="1">
       <c r="A31" s="125"/>
       <c r="B31" s="3" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>694</v>
@@ -16349,7 +16310,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -16361,7 +16322,7 @@
         <v>177</v>
       </c>
       <c r="D10" s="83" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
@@ -16373,7 +16334,7 @@
         <v>178</v>
       </c>
       <c r="D11" s="83" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -16385,7 +16346,7 @@
         <v>176</v>
       </c>
       <c r="D12" s="83" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -16396,10 +16357,10 @@
         <v>121</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
@@ -16408,10 +16369,10 @@
     <row r="14" spans="1:7" ht="14.25" customHeight="1">
       <c r="A14" s="122"/>
       <c r="B14" s="3" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
@@ -16425,7 +16386,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -16437,7 +16398,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
@@ -16449,7 +16410,7 @@
         <v>28</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
@@ -16461,7 +16422,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
@@ -16473,7 +16434,7 @@
         <v>30</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
@@ -16484,12 +16445,12 @@
         <v>123</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="21"/>
       <c r="F20" s="7" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="G20" s="22"/>
     </row>
@@ -16498,10 +16459,10 @@
         <v>124</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D21" s="83" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -16510,25 +16471,25 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="125"/>
       <c r="B22" s="3" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="D22" s="83" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E22" s="84" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1">
       <c r="A23" s="125"/>
       <c r="B23" s="3" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D23" s="83"/>
       <c r="E23" s="84"/>
@@ -16538,10 +16499,10 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="125"/>
       <c r="B24" s="3" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="D24" s="83" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
@@ -16550,10 +16511,10 @@
     <row r="25" spans="1:7" ht="14.25" customHeight="1">
       <c r="A25" s="125"/>
       <c r="B25" s="3" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="D25" s="83" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
@@ -16562,10 +16523,10 @@
     <row r="26" spans="1:7" ht="14.25" customHeight="1">
       <c r="A26" s="125"/>
       <c r="B26" s="3" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D26" s="83" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
@@ -16574,36 +16535,36 @@
     <row r="27" spans="1:7" ht="14.25" customHeight="1">
       <c r="A27" s="125"/>
       <c r="B27" s="3" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="D27" s="83"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1">
       <c r="A28" s="125"/>
       <c r="B28" s="3" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="D28" s="83" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1">
       <c r="A29" s="125"/>
       <c r="B29" s="3" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="D29" s="83" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
@@ -16612,10 +16573,10 @@
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
       <c r="A30" s="125"/>
       <c r="B30" s="3" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="D30" s="83" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
@@ -16624,10 +16585,10 @@
     <row r="31" spans="1:7" ht="14.25" customHeight="1">
       <c r="A31" s="125"/>
       <c r="B31" s="3" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="D31" s="83" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
@@ -16636,10 +16597,10 @@
     <row r="32" spans="1:7" ht="14.25" customHeight="1">
       <c r="A32" s="125"/>
       <c r="B32" s="3" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="D32" s="83" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
@@ -16648,10 +16609,10 @@
     <row r="33" spans="1:7" ht="14.25" customHeight="1">
       <c r="A33" s="125"/>
       <c r="B33" s="3" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="D33" s="85" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
@@ -16813,7 +16774,7 @@
         <v>151</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>882</v>
@@ -16827,7 +16788,7 @@
     <row r="16" spans="1:7" ht="30.45" customHeight="1">
       <c r="A16" s="122"/>
       <c r="B16" s="3" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>884</v>
@@ -16881,7 +16842,7 @@
         <v>123</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -16893,7 +16854,7 @@
     <row r="21" spans="1:7" ht="14.1" customHeight="1">
       <c r="A21" s="122"/>
       <c r="B21" s="3" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>902</v>
@@ -16907,23 +16868,23 @@
         <v>124</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>889</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.55" customHeight="1">
       <c r="A23" s="125"/>
       <c r="B23" s="3" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -16931,13 +16892,13 @@
         <v>785</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.55" customHeight="1">
       <c r="A24" s="125"/>
       <c r="B24" s="3" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>890</v>
@@ -16947,13 +16908,13 @@
         <v>785</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.55" customHeight="1">
       <c r="A25" s="125"/>
       <c r="B25" s="3" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>891</v>
@@ -16965,23 +16926,23 @@
     <row r="26" spans="1:7" ht="14.55" customHeight="1">
       <c r="A26" s="125"/>
       <c r="B26" s="3" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>892</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.55" customHeight="1">
       <c r="A27" s="125"/>
       <c r="B27" s="3" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -16991,7 +16952,7 @@
     <row r="28" spans="1:7" ht="14.55" customHeight="1">
       <c r="A28" s="125"/>
       <c r="B28" s="3" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>893</v>
@@ -17003,7 +16964,7 @@
     <row r="29" spans="1:7" ht="14.55" customHeight="1">
       <c r="A29" s="125"/>
       <c r="B29" s="3" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>894</v>
@@ -17011,13 +16972,13 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.55" customHeight="1">
       <c r="A30" s="125"/>
       <c r="B30" s="3" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>895</v>
@@ -17029,7 +16990,7 @@
     <row r="31" spans="1:7" ht="14.55" customHeight="1">
       <c r="A31" s="125"/>
       <c r="B31" s="3" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>896</v>
@@ -17038,14 +16999,14 @@
         <v>900</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="14.55" customHeight="1">
       <c r="A32" s="125"/>
       <c r="B32" s="3" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>897</v>
@@ -17057,7 +17018,7 @@
     <row r="33" spans="1:7" ht="14.55" customHeight="1">
       <c r="A33" s="125"/>
       <c r="B33" s="3" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>902</v>
@@ -17066,46 +17027,46 @@
         <v>902</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="14.55" customHeight="1">
       <c r="A34" s="125"/>
       <c r="B34" s="3" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>898</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="14.55" customHeight="1">
       <c r="A35" s="125"/>
       <c r="B35" s="3" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>899</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="14.55" customHeight="1">
       <c r="A36" s="125"/>
       <c r="B36" s="3" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -17117,7 +17078,7 @@
     <row r="37" spans="1:7" ht="14.55" customHeight="1">
       <c r="A37" s="125"/>
       <c r="B37" s="3" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -17125,13 +17086,13 @@
         <v>785</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.55" customHeight="1">
       <c r="A38" s="125"/>
       <c r="B38" s="3" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -17139,13 +17100,13 @@
         <v>785</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="14.55" customHeight="1">
       <c r="A39" s="125"/>
       <c r="B39" s="3" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -17157,7 +17118,7 @@
     <row r="40" spans="1:7" ht="14.55" customHeight="1">
       <c r="A40" s="125"/>
       <c r="B40" s="3" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -17165,13 +17126,13 @@
         <v>785</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="14.55" customHeight="1">
       <c r="A41" s="125"/>
       <c r="B41" s="3" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>901</v>
@@ -17198,7 +17159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -17263,7 +17224,7 @@
         <v>120</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="18"/>
@@ -17275,7 +17236,7 @@
         <v>121</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>941</v>
@@ -17287,7 +17248,7 @@
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
       <c r="A11" s="122"/>
       <c r="B11" s="6" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>739</v>
@@ -17397,7 +17358,7 @@
         <v>123</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>933</v>
@@ -17411,7 +17372,7 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="121"/>
       <c r="B22" s="3" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>934</v>
@@ -17423,7 +17384,7 @@
     <row r="23" spans="1:7" ht="15" customHeight="1">
       <c r="A23" s="122"/>
       <c r="B23" s="7" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>937</v>
@@ -17437,7 +17398,7 @@
         <v>124</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>742</v>
@@ -17463,13 +17424,13 @@
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.55" customHeight="1">
       <c r="A26" s="125"/>
       <c r="B26" s="7" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>743</v>
@@ -17505,7 +17466,7 @@
     <row r="29" spans="1:7" ht="14.55" customHeight="1">
       <c r="A29" s="125"/>
       <c r="B29" s="7" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="21"/>
@@ -17517,7 +17478,7 @@
     <row r="30" spans="1:7" ht="14.55" customHeight="1">
       <c r="A30" s="125"/>
       <c r="B30" s="7" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>746</v>
@@ -17529,7 +17490,7 @@
     <row r="31" spans="1:7" ht="14.55" customHeight="1">
       <c r="A31" s="125"/>
       <c r="B31" s="7" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>748</v>
@@ -17541,7 +17502,7 @@
     <row r="32" spans="1:7" ht="24.75" customHeight="1">
       <c r="A32" s="125"/>
       <c r="B32" s="7" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>747</v>
@@ -17555,7 +17516,7 @@
     <row r="33" spans="1:7" ht="14.55" customHeight="1">
       <c r="A33" s="125"/>
       <c r="B33" s="7" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>749</v>
@@ -17569,7 +17530,7 @@
     <row r="34" spans="1:7" ht="14.55" customHeight="1">
       <c r="A34" s="125"/>
       <c r="B34" s="7" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>750</v>
@@ -17699,7 +17660,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="59" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C6" s="114" t="s">
         <v>211</v>
@@ -17734,7 +17695,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="A9" s="63" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C9" s="115"/>
       <c r="D9" s="118"/>
@@ -17745,7 +17706,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="A10" s="64" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C10" s="115"/>
       <c r="D10" s="118"/>
@@ -17756,7 +17717,7 @@
     </row>
     <row r="11" spans="1:6" ht="13.95" customHeight="1">
       <c r="A11" s="64" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C11" s="115"/>
       <c r="D11" s="118"/>
@@ -17767,7 +17728,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="64" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C12" s="115"/>
       <c r="D12" s="118"/>
@@ -17778,7 +17739,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="64" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C13" s="115"/>
       <c r="D13" s="118"/>
@@ -17789,7 +17750,7 @@
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
       <c r="A14" s="64" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C14" s="115"/>
       <c r="D14" s="118"/>
@@ -17800,7 +17761,7 @@
     </row>
     <row r="15" spans="1:6" ht="14.55" customHeight="1">
       <c r="A15" s="64" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C15" s="116"/>
       <c r="D15" s="119"/>
@@ -19405,7 +19366,7 @@
       </c>
       <c r="L53" s="39"/>
     </row>
-    <row r="54" spans="1:12" ht="24">
+    <row r="54" spans="1:12" ht="36">
       <c r="A54" s="51"/>
       <c r="B54" s="39"/>
       <c r="C54" s="41" t="s">
@@ -19867,7 +19828,7 @@
     <row r="11" spans="1:7" ht="28.5" customHeight="1">
       <c r="A11" s="121"/>
       <c r="B11" s="3" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>759</v>
@@ -19941,7 +19902,7 @@
         <v>121</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="2" t="s">
@@ -19952,13 +19913,13 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="123" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="122"/>
       <c r="B18" s="2" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C18" s="68"/>
       <c r="D18" s="2" t="s">
@@ -19975,7 +19936,7 @@
         <v>122</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>768</v>
@@ -19984,10 +19945,10 @@
         <v>769</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
@@ -20033,17 +19994,17 @@
     <row r="23" spans="1:7" ht="14.25" customHeight="1">
       <c r="A23" s="121"/>
       <c r="B23" s="6" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>771</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G23" s="102" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
@@ -20095,7 +20056,7 @@
         <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>774</v>
@@ -20104,16 +20065,16 @@
         <v>773</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="46.05" customHeight="1">
       <c r="A28" s="125"/>
       <c r="B28" s="4" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>797</v>
@@ -20122,16 +20083,16 @@
         <v>775</v>
       </c>
       <c r="F28" s="102" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="G28" s="102" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30.45" customHeight="1">
       <c r="A29" s="125"/>
       <c r="B29" s="4" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>770</v>
@@ -20141,13 +20102,13 @@
         <v>776</v>
       </c>
       <c r="G29" s="56" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="79.5" customHeight="1">
       <c r="A30" s="125"/>
       <c r="B30" s="4" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>777</v>
@@ -20165,7 +20126,7 @@
     <row r="31" spans="1:7" ht="30.45" customHeight="1">
       <c r="A31" s="125"/>
       <c r="B31" s="4" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>770</v>
@@ -20173,7 +20134,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="102"/>
       <c r="G31" s="102" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
     </row>
   </sheetData>
@@ -20363,7 +20324,7 @@
     <row r="17" spans="1:7" ht="14.25" customHeight="1">
       <c r="A17" s="121"/>
       <c r="B17" s="2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>315</v>
@@ -20387,7 +20348,7 @@
     <row r="19" spans="1:7" ht="14.25" customHeight="1">
       <c r="A19" s="121"/>
       <c r="B19" s="3" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>316</v>
@@ -20399,7 +20360,7 @@
     <row r="20" spans="1:7" ht="14.25" customHeight="1">
       <c r="A20" s="121"/>
       <c r="B20" s="3" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D20" s="55" t="s">
         <v>317</v>
@@ -20411,7 +20372,7 @@
     <row r="21" spans="1:7" ht="14.25" customHeight="1">
       <c r="A21" s="121"/>
       <c r="B21" s="3" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>318</v>
@@ -20423,7 +20384,7 @@
     <row r="22" spans="1:7" ht="14.25" customHeight="1">
       <c r="A22" s="121"/>
       <c r="B22" s="3" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D22" s="55" t="s">
         <v>319</v>
@@ -20435,7 +20396,7 @@
     <row r="23" spans="1:7" ht="14.25" customHeight="1">
       <c r="A23" s="121"/>
       <c r="B23" s="3" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="D23" s="55" t="s">
         <v>320</v>
@@ -20447,7 +20408,7 @@
     <row r="24" spans="1:7" ht="14.25" customHeight="1">
       <c r="A24" s="121"/>
       <c r="B24" s="3" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="D24" s="55" t="s">
         <v>321</v>
@@ -20459,7 +20420,7 @@
     <row r="25" spans="1:7" ht="14.25" customHeight="1">
       <c r="A25" s="121"/>
       <c r="B25" s="3" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="D25" s="55" t="s">
         <v>322</v>
@@ -20471,7 +20432,7 @@
     <row r="26" spans="1:7" ht="14.25" customHeight="1">
       <c r="A26" s="121"/>
       <c r="B26" s="3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D26" s="55" t="s">
         <v>323</v>
@@ -20483,7 +20444,7 @@
     <row r="27" spans="1:7" ht="14.25" customHeight="1">
       <c r="A27" s="121"/>
       <c r="B27" s="3" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D27" s="55" t="s">
         <v>324</v>
@@ -20495,7 +20456,7 @@
     <row r="28" spans="1:7" ht="14.25" customHeight="1">
       <c r="A28" s="122"/>
       <c r="B28" s="3" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>325</v>
@@ -20509,7 +20470,7 @@
         <v>121</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>704</v>
@@ -20523,10 +20484,10 @@
     <row r="30" spans="1:7" ht="37.5" customHeight="1">
       <c r="A30" s="121"/>
       <c r="B30" s="2" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>326</v>
@@ -20539,7 +20500,7 @@
         <v>131</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="D31" s="55" t="s">
         <v>705</v>
@@ -20547,13 +20508,13 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1">
       <c r="A32" s="122"/>
       <c r="B32" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="D32" s="55" t="s">
         <v>706</v>
@@ -20567,7 +20528,7 @@
         <v>132</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>707</v>
@@ -20581,35 +20542,35 @@
         <v>133</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="D34" s="55" t="s">
         <v>708</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="12.75" customHeight="1">
       <c r="A35" s="125"/>
       <c r="B35" s="4" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="D35" s="55" t="s">
         <v>710</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="30.75" customHeight="1">
       <c r="A36" s="125"/>
       <c r="B36" s="4" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="D36" s="55" t="s">
         <v>709</v>
@@ -20621,7 +20582,7 @@
     <row r="37" spans="1:7" ht="37.5" customHeight="1">
       <c r="A37" s="125"/>
       <c r="B37" s="4" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="D37" s="55" t="s">
         <v>713</v>
@@ -20633,7 +20594,7 @@
     <row r="38" spans="1:7" ht="30" customHeight="1">
       <c r="A38" s="125"/>
       <c r="B38" s="4" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="D38" s="55" t="s">
         <v>714</v>
@@ -20645,7 +20606,7 @@
     <row r="39" spans="1:7" ht="26.55" customHeight="1">
       <c r="A39" s="125"/>
       <c r="B39" s="4" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D39" s="55" t="s">
         <v>712</v>
@@ -20661,7 +20622,7 @@
     <row r="40" spans="1:7" ht="14.25" customHeight="1">
       <c r="A40" s="125"/>
       <c r="B40" s="4" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D40" s="55" t="s">
         <v>715</v>
@@ -20675,7 +20636,7 @@
     <row r="41" spans="1:7" ht="14.25" customHeight="1">
       <c r="A41" s="125"/>
       <c r="B41" s="4" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D41" s="55" t="s">
         <v>716</v>
@@ -20804,7 +20765,7 @@
         <v>121</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>784</v>
@@ -20814,7 +20775,7 @@
         <v>787</v>
       </c>
       <c r="G12" s="81" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="31.05" customHeight="1">
@@ -20822,7 +20783,7 @@
         <v>131</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>788</v>
@@ -20834,7 +20795,7 @@
     <row r="14" spans="1:7" ht="14.1" customHeight="1">
       <c r="A14" s="121"/>
       <c r="B14" s="4" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>789</v>
@@ -20846,7 +20807,7 @@
     <row r="15" spans="1:7" ht="14.1" customHeight="1">
       <c r="A15" s="121"/>
       <c r="B15" s="4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>790</v>
@@ -20872,7 +20833,7 @@
         <v>123</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -20884,7 +20845,7 @@
     <row r="18" spans="1:7" ht="14.1" customHeight="1">
       <c r="A18" s="121"/>
       <c r="B18" s="4" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -20896,7 +20857,7 @@
     <row r="19" spans="1:7" ht="14.55" customHeight="1">
       <c r="A19" s="122"/>
       <c r="B19" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -20910,7 +20871,7 @@
         <v>124</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>791</v>
@@ -20926,7 +20887,7 @@
     <row r="21" spans="1:7" ht="33.450000000000003" customHeight="1">
       <c r="A21" s="121"/>
       <c r="B21" s="3" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>793</v>
@@ -20942,14 +20903,14 @@
     <row r="22" spans="1:7" ht="30" customHeight="1">
       <c r="A22" s="121"/>
       <c r="B22" s="3" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>795</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="56" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="G22" s="56" t="s">
         <v>798</v>
@@ -20958,10 +20919,10 @@
     <row r="23" spans="1:7" ht="30" customHeight="1">
       <c r="A23" s="121"/>
       <c r="B23" s="3" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>796</v>
@@ -20974,13 +20935,13 @@
     <row r="24" spans="1:7" ht="28.95" customHeight="1">
       <c r="A24" s="121"/>
       <c r="B24" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -20988,30 +20949,30 @@
     <row r="25" spans="1:7" ht="25.95" customHeight="1">
       <c r="A25" s="121"/>
       <c r="B25" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="66.45" customHeight="1">
       <c r="A26" s="121"/>
       <c r="B26" s="4" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>801</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="G26" s="56" t="s">
         <v>800</v>
@@ -21020,7 +20981,7 @@
     <row r="27" spans="1:7" ht="19.5" customHeight="1">
       <c r="A27" s="121"/>
       <c r="B27" s="4" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>803</v>
@@ -21034,21 +20995,21 @@
     <row r="28" spans="1:7" ht="26.55" customHeight="1">
       <c r="A28" s="121"/>
       <c r="B28" s="4" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1">
       <c r="A29" s="121"/>
       <c r="B29" s="4" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -21056,13 +21017,13 @@
         <v>785</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="19.05" customHeight="1">
       <c r="A30" s="122"/>
       <c r="B30" s="3" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -21073,7 +21034,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="80" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -21093,8 +21054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031D1AB0-9E7B-4672-82EB-F2381650B767}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="12"/>
@@ -21256,14 +21217,14 @@
         <v>151</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>293</v>
@@ -21274,7 +21235,7 @@
         <v>122</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>814</v>
@@ -21286,7 +21247,7 @@
     <row r="19" spans="1:7" ht="16.05" customHeight="1">
       <c r="A19" s="125"/>
       <c r="B19" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>815</v>
@@ -21346,27 +21307,27 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1">
       <c r="A24" s="125"/>
       <c r="B24" s="3" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>816</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1">
       <c r="A25" s="125"/>
       <c r="B25" s="3" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -21378,7 +21339,7 @@
     <row r="26" spans="1:7" ht="15" customHeight="1">
       <c r="A26" s="125"/>
       <c r="B26" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>817</v>
@@ -21390,21 +21351,21 @@
     <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="125"/>
       <c r="B27" s="3" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>818</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1">
       <c r="A28" s="125"/>
       <c r="B28" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>819</v>
@@ -21418,35 +21379,35 @@
     <row r="29" spans="1:7" ht="15" customHeight="1">
       <c r="A29" s="125"/>
       <c r="B29" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>820</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1">
       <c r="A30" s="125"/>
       <c r="B30" s="3" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>821</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="15" customHeight="1">
       <c r="A31" s="125"/>
       <c r="B31" s="3" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>823</v>
@@ -21460,7 +21421,7 @@
     <row r="32" spans="1:7" ht="15" customHeight="1">
       <c r="A32" s="125"/>
       <c r="B32" s="3" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>825</v>
@@ -21469,7 +21430,7 @@
         <v>831</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>832</v>
@@ -21478,7 +21439,7 @@
     <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" s="125"/>
       <c r="B33" s="3" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>826</v>
@@ -21490,7 +21451,7 @@
     <row r="34" spans="1:7" ht="15" customHeight="1">
       <c r="A34" s="125"/>
       <c r="B34" s="3" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>827</v>
@@ -21508,7 +21469,7 @@
     <row r="35" spans="1:7" ht="15" customHeight="1">
       <c r="A35" s="125"/>
       <c r="B35" s="3" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>828</v>
@@ -21522,7 +21483,7 @@
     <row r="36" spans="1:7" ht="15" customHeight="1">
       <c r="A36" s="125"/>
       <c r="B36" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>829</v>
@@ -21540,7 +21501,7 @@
     <row r="37" spans="1:7" ht="15" customHeight="1">
       <c r="A37" s="125"/>
       <c r="B37" s="3" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>830</v>
@@ -21554,7 +21515,7 @@
     <row r="38" spans="1:7" ht="15" customHeight="1">
       <c r="A38" s="125"/>
       <c r="B38" s="3" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>838</v>
@@ -21570,7 +21531,7 @@
     <row r="39" spans="1:7" ht="15" customHeight="1">
       <c r="A39" s="125"/>
       <c r="B39" s="3" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>839</v>
@@ -21582,7 +21543,7 @@
     <row r="40" spans="1:7" ht="15" customHeight="1">
       <c r="A40" s="125"/>
       <c r="B40" s="3" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -21594,7 +21555,7 @@
     <row r="41" spans="1:7" ht="25.95" customHeight="1">
       <c r="A41" s="125"/>
       <c r="B41" s="3" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -21606,10 +21567,10 @@
     <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="125"/>
       <c r="B42" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -21695,7 +21656,7 @@
     </row>
     <row r="9" spans="1:7" ht="14.55" customHeight="1">
       <c r="A9" s="120" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>136</v>
@@ -21868,7 +21829,7 @@
         <v>121</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>956</v>
@@ -21882,7 +21843,7 @@
     <row r="24" spans="1:7" ht="16.05" customHeight="1">
       <c r="A24" s="122"/>
       <c r="B24" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="5"/>
@@ -21896,7 +21857,7 @@
         <v>122</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D25" s="67" t="s">
         <v>959</v>
@@ -21910,24 +21871,24 @@
     <row r="26" spans="1:7" ht="14.25" customHeight="1">
       <c r="A26" s="125"/>
       <c r="B26" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="D26" s="67" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="22" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1">
       <c r="A27" s="125"/>
       <c r="B27" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="D27" s="67" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -21948,7 +21909,7 @@
     <row r="29" spans="1:7" ht="14.25" customHeight="1">
       <c r="A29" s="125"/>
       <c r="B29" s="3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D29" s="67" t="s">
         <v>962</v>
@@ -21960,7 +21921,7 @@
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
       <c r="A30" s="125"/>
       <c r="B30" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D30" s="67" t="s">
         <v>963</v>
@@ -21974,7 +21935,7 @@
         <v>123</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>964</v>
@@ -21990,7 +21951,7 @@
     <row r="32" spans="1:7" ht="25.5" customHeight="1">
       <c r="A32" s="121"/>
       <c r="B32" s="4" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>965</v>
@@ -22002,17 +21963,17 @@
     <row r="33" spans="1:7" ht="15" customHeight="1">
       <c r="A33" s="121"/>
       <c r="B33" s="4" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>966</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="22" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" customHeight="1">
@@ -22020,7 +21981,7 @@
         <v>124</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="D34" s="20" t="s">
         <v>967</v>
@@ -22034,7 +21995,7 @@
     <row r="35" spans="1:7" ht="26.55" customHeight="1">
       <c r="A35" s="125"/>
       <c r="B35" s="4" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="D35" s="20" t="s">
         <v>968</v>
@@ -22048,7 +22009,7 @@
     <row r="36" spans="1:7" ht="50.55" customHeight="1">
       <c r="A36" s="125"/>
       <c r="B36" s="4" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="D36" s="20" t="s">
         <v>969</v>
@@ -22062,7 +22023,7 @@
     <row r="37" spans="1:7" ht="28.5" customHeight="1">
       <c r="A37" s="125"/>
       <c r="B37" s="4" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>970</v>
@@ -22070,13 +22031,13 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="22" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="31.5" customHeight="1">
       <c r="A38" s="125"/>
       <c r="B38" s="4" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>971</v>
@@ -22088,7 +22049,7 @@
     <row r="39" spans="1:7" ht="19.5" customHeight="1">
       <c r="A39" s="125"/>
       <c r="B39" s="4" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>972</v>
@@ -22100,7 +22061,7 @@
     <row r="40" spans="1:7" ht="30.45" customHeight="1">
       <c r="A40" s="125"/>
       <c r="B40" s="4" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>973</v>
@@ -22108,13 +22069,13 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="22" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="28.5" customHeight="1">
       <c r="A41" s="125"/>
       <c r="B41" s="4" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="D41" s="20" t="s">
         <v>974</v>
@@ -22126,7 +22087,7 @@
     <row r="42" spans="1:7" ht="15" customHeight="1">
       <c r="A42" s="125"/>
       <c r="B42" s="4" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D42" s="20" t="s">
         <v>975</v>
@@ -22136,35 +22097,35 @@
       </c>
       <c r="F42" s="5"/>
       <c r="G42" s="22" t="s">
-        <v>981</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" customHeight="1">
       <c r="A43" s="125"/>
       <c r="B43" s="4" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D43" s="20" t="s">
+        <v>981</v>
+      </c>
+      <c r="E43" s="5" t="s">
         <v>982</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>983</v>
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="22" t="s">
-        <v>984</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1">
       <c r="A44" s="125"/>
       <c r="B44" s="3" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E44" s="23" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="25"/>
@@ -22336,7 +22297,7 @@
     <row r="16" spans="1:7" ht="14.1" customHeight="1">
       <c r="A16" s="121"/>
       <c r="B16" s="3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>849</v>
@@ -22374,13 +22335,13 @@
         <v>151</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>853</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
@@ -22390,14 +22351,14 @@
     <row r="20" spans="1:7" ht="15" customHeight="1">
       <c r="A20" s="122"/>
       <c r="B20" s="3" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>860</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>854</v>
@@ -22408,7 +22369,7 @@
         <v>122</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>857</v>
@@ -22420,7 +22381,7 @@
     <row r="22" spans="1:7" ht="14.1" customHeight="1">
       <c r="A22" s="127"/>
       <c r="B22" s="3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>875</v>
@@ -22432,7 +22393,7 @@
     <row r="23" spans="1:7" ht="25.5" customHeight="1">
       <c r="A23" s="127"/>
       <c r="B23" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -22444,7 +22405,7 @@
     <row r="24" spans="1:7" ht="25.95" customHeight="1">
       <c r="A24" s="127"/>
       <c r="B24" s="3" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>855</v>
@@ -22456,7 +22417,7 @@
     <row r="25" spans="1:7" ht="14.1" customHeight="1">
       <c r="A25" s="128"/>
       <c r="B25" s="3" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>856</v>
@@ -22510,7 +22471,7 @@
         <v>124</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>861</v>
@@ -22526,7 +22487,7 @@
     <row r="30" spans="1:7" ht="45.45" customHeight="1">
       <c r="A30" s="125"/>
       <c r="B30" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>863</v>
@@ -22536,13 +22497,13 @@
         <v>864</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="52.95" customHeight="1">
       <c r="A31" s="125"/>
       <c r="B31" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>873</v>
@@ -22551,7 +22512,7 @@
         <v>865</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>866</v>
@@ -22560,7 +22521,7 @@
     <row r="32" spans="1:7" ht="31.05" customHeight="1">
       <c r="A32" s="125"/>
       <c r="B32" s="3" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>867</v>
@@ -22576,7 +22537,7 @@
     <row r="33" spans="1:7" ht="32.549999999999997" customHeight="1">
       <c r="A33" s="125"/>
       <c r="B33" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>870</v>
@@ -22590,7 +22551,7 @@
     <row r="34" spans="1:7" ht="19.5" customHeight="1">
       <c r="A34" s="125"/>
       <c r="B34" s="3" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>871</v>
@@ -22602,23 +22563,23 @@
     <row r="35" spans="1:7" ht="31.5" customHeight="1">
       <c r="A35" s="125"/>
       <c r="B35" s="3" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>872</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
       <c r="A36" s="125"/>
       <c r="B36" s="3" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>874</v>
@@ -22627,22 +22588,22 @@
         <v>875</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.55" customHeight="1">
       <c r="A37" s="125"/>
       <c r="B37" s="3" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
   </sheetData>
